--- a/documentacao/requisitos/product_backlog.xlsx
+++ b/documentacao/requisitos/product_backlog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\grupo9-ads\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D8C81-1B60-4A2E-B12C-ACE52AAAB522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1C4DADD-FD84-4BF2-A3A9-24EEBFABB33A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Área</t>
   </si>
@@ -97,13 +96,16 @@
   </si>
   <si>
     <t>É de importancia ter uma tela que mostre o nosso produto</t>
+  </si>
+  <si>
+    <t>Site Institucional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +116,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -146,12 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3B78E-A615-40A1-921D-18C62CC3C26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +860,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1062,7 +1075,7 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>

--- a/documentacao/requisitos/product_backlog.xlsx
+++ b/documentacao/requisitos/product_backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\documentacao\requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitória Cristina\Desktop\grupo9-ads\documentacao\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F3AB65-8693-4B5F-8938-7B6506E048D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -62,9 +57,6 @@
     <t>Ter um banco de dados em nuvem</t>
   </si>
   <si>
-    <t>A programação deve ser feita em arduíno</t>
-  </si>
-  <si>
     <t>Deve ter um documento explicando o contexto</t>
   </si>
   <si>
@@ -99,12 +91,15 @@
   </si>
   <si>
     <t>Site Institucional</t>
+  </si>
+  <si>
+    <t>A programação dos sensores deve ser feita em arduíno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,11 +475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -555,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -583,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
@@ -667,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -695,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>90</v>
@@ -723,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
@@ -751,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -779,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
@@ -807,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
@@ -835,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -860,10 +855,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>70</v>
@@ -919,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
